--- a/public/sample_uploads/capital_remittance_payments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_remittance_payments_multi_currency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFB317-4944-4591-BE98-B1215FEFCD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCCB9D-9CD1-43C4-BEB2-7EE4AAFF1CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Investor *</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -471,7 +474,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -587,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>10000</v>
@@ -667,7 +670,33 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>80000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44562</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/sample_uploads/capital_remittance_payments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_remittance_payments_multi_currency.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E9F1D-604C-4361-89FE-D4BD0EBB97F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571F215-B9CB-44BD-B0C2-316689FBC6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,8 +33,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+    <author>thimm</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{C54D892E-EF37-4E38-889E-F074B8117790}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Payment amount in the currency it is received inclusive of fees</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{3CD46376-C1A3-4A89-B8B3-E9371C1FD11A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>thimm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Amount in fund currency, leave blank if you want the platform to convert the amount based on exchange rates setup on the platform</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Investor *</t>
   </si>
@@ -36,9 +104,6 @@
     <t>Capital Call *</t>
   </si>
   <si>
-    <t>Amount *</t>
-  </si>
-  <si>
     <t>Currency *</t>
   </si>
   <si>
@@ -100,13 +165,19 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>Amount (Folio Currency)*</t>
+  </si>
+  <si>
+    <t>Amount (Fund Currency)*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -125,6 +196,38 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,12 +237,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -151,11 +263,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,11 +587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -486,14 +599,14 @@
     <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="13.1875" customWidth="1"/>
     <col min="3" max="3" width="18.6875" customWidth="1"/>
-    <col min="4" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="8" max="8" width="20.0625" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="13.3125" customWidth="1"/>
+    <col min="4" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="20.0625" customWidth="1"/>
+    <col min="10" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="13.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,228 +616,235 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>120</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>10000</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>44562</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
-        <v>44562</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3">
         <v>30000</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>44562</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44562</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>8</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>44562</v>
       </c>
-      <c r="L4" t="s">
-        <v>16</v>
+      <c r="M4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5">
         <v>140</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44593</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44593</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>10000</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>44593</v>
       </c>
-      <c r="L6" t="s">
-        <v>16</v>
+      <c r="M6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>80000</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="L7" t="s">
-        <v>16</v>
+      <c r="M7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/sample_uploads/capital_remittance_payments_multi_currency.xlsx
+++ b/public/sample_uploads/capital_remittance_payments_multi_currency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\thimmaiah\work\IRM\public\sample_uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571F215-B9CB-44BD-B0C2-316689FBC6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BC863-5EAD-491C-A997-825D11EA7BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="735" windowWidth="23985" windowHeight="14265" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CapitalRemittance" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Investor *</t>
   </si>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Investor 4</t>
-  </si>
-  <si>
-    <t>Capital Call 6</t>
-  </si>
-  <si>
-    <t>C1</t>
   </si>
   <si>
     <t>Amount (Folio Currency)*</t>
@@ -263,11 +257,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -588,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -616,14 +609,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>25</v>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -807,38 +800,6 @@
         <v>44593</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>80000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2">
-        <v>44562</v>
-      </c>
-      <c r="M7" t="s">
         <v>15</v>
       </c>
     </row>
